--- a/dist/data/profiles/xlsx/bluff/profile 21-11 graph.xlsx
+++ b/dist/data/profiles/xlsx/bluff/profile 21-11 graph.xlsx
@@ -1335,11 +1335,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="25689210"/>
-        <c:axId val="63484281"/>
+        <c:axId val="77241668"/>
+        <c:axId val="52305636"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="25689210"/>
+        <c:axId val="77241668"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1374,12 +1374,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63484281"/>
+        <c:crossAx val="52305636"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63484281"/>
+        <c:axId val="52305636"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1423,7 +1423,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25689210"/>
+        <c:crossAx val="77241668"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
